--- a/testcase/test.xlsx
+++ b/testcase/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ApiTest\testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Coding\LOCAL\HttpTest\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>执行标示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,14 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页banner，推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area=%E9%95%BF%E6%B2%99%E5%B8%82&amp;page=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页banner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,11 +86,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14726968415</t>
+    <t>首页推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area=长沙&amp;page=1&amp;page_size=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,20 +127,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -145,12 +170,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,90 +466,95 @@
   <dimension ref="B1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="1" customWidth="1"/>
     <col min="6" max="8" width="9" style="1"/>
     <col min="9" max="9" width="32" style="1" customWidth="1"/>
     <col min="10" max="10" width="96.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/test.xlsx
+++ b/testcase/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>执行标示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,39 +70,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>首页banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area=长沙&amp;page=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/indexRecommendProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/index/indexRecommendProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/index/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页推荐</t>
+    <t>area=北京&amp;page=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area=上海&amp;page=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area=长沙&amp;page=1&amp;page_size=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J3"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -517,21 +533,21 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -542,19 +558,163 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/test.xlsx
+++ b/testcase/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
   <si>
     <t>执行标示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,67 +54,314 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area=长沙&amp;page=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/indexRecommendProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页banner和theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页推荐产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页产品搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index/indexProductSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自驾主题首页banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自驾主题首页主题列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/theme/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/theme/banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自驾主题产品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/theme/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景点详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/theme/sceneDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/theme/hotelDetail</t>
+  </si>
+  <si>
+    <t>餐厅详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/theme/restaurantDetail</t>
+  </si>
+  <si>
+    <t>产品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取价格日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/priceCalender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/purchase/getToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/purchase/purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取反馈原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feedback/getReasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/feedback/feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现栏目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/discoverRoute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单支付获取签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/alipay/getSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word=北京&amp;page=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=5&amp;order=1&amp;page=1&amp;page_size=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id=1&amp;route_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"total_num":2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client=ios&amp;content=测试&amp;reasons=[
+  "1",
+  "5"
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure=长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/index/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area=长沙&amp;page=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/index/indexRecommendProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area=北京&amp;page=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area=上海&amp;page=1&amp;page_size=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=670b14728ad9902aecba32e22fa4f6bd&amp;username=15200000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=000000&amp;username=15200000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码未经过加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有传用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有传密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=670b14728ad9902aecba32e22fa4f6bd&amp;username=14726968415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15200000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_app标示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +384,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,18 +436,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,24 +735,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="32" style="1" customWidth="1"/>
-    <col min="10" max="10" width="96.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="21.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -516,209 +778,684 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="2:11" ht="33" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="9" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="66" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23">
+      <formula1>"GET,POST"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B23 H2:I23">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/testcase/test.xlsx
+++ b/testcase/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
   <si>
     <t>执行标示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t>/product/priceCalender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password=670b14728ad9902aecba32e22fa4f6bd&amp;username=14726968415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>password=000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +354,29 @@
   </si>
   <si>
     <t>auth_app标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=670b14728ad9902aecba32e22fa4f6bd&amp;username=15233333333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/purchase/purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>product_id=1&amp;route_id=1&amp;contact_person={"email":"12@qq.com","mobile":"14726968415","name":"刘静"}&amp;adult_info=[{"id_card":"430681199111111111","mobile":"14726968415","name":"刘静"}]&amp;child_info=[]&amp;date=2016-07-27&amp;total_price=0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token标示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K23"/>
+  <dimension ref="B1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,17 +763,17 @@
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="48.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,19 +793,22 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="33" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>66</v>
       </c>
@@ -798,494 +816,512 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="115.5" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="33" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
@@ -1297,82 +1333,87 @@
       <c r="I18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="3"/>
+      <c r="K18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="66" hidden="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
@@ -1381,58 +1422,58 @@
       <c r="I21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="66" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" ht="16.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="3"/>
+      <c r="K22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="33" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="3" t="s">
@@ -1441,18 +1482,50 @@
       <c r="I23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3" t="s">
-        <v>61</v>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24">
       <formula1>"GET,POST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B23 H2:I23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J24 B2:B24">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/testcase/test.xlsx
+++ b/testcase/test.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="195">
   <si>
     <t>执行标示</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,66 +318,489 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码未经过加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有传用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有传密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15200000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth_app标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=670b14728ad9902aecba32e22fa4f6bd&amp;username=15233333333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/purchase/purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>product_id=1&amp;route_id=1&amp;contact_person={"email":"12@qq.com","mobile":"14726968415","name":"刘静"}&amp;adult_info=[{"id_card":"430681199111111111","mobile":"14726968415","name":"刘静"}]&amp;child_info=[]&amp;date=2016-07-27&amp;total_price=0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有传用户名与密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/checkUsername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/sendCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式错误的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=152333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前该用例失败，服务器端没有对电话号码做校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>password=000000&amp;username=15200000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码未经过加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有传用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有传密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password=000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username=15200000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auth_app标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password=670b14728ad9902aecba32e22fa4f6bd&amp;username=15233333333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取订单token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/purchase/purchase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>product_id=1&amp;route_id=1&amp;contact_person={"email":"12@qq.com","mobile":"14726968415","name":"刘静"}&amp;adult_info=[{"id_card":"430681199111111111","mobile":"14726968415","name":"刘静"}]&amp;child_info=[]&amp;date=2016-07-27&amp;total_price=0.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token标示</t>
+    <t>验证通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15233333333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15233333333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误或已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15299999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前该用例失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15299999999&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15299999999&amp;code=1112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15244444444&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15299999999&amp;password=670b14728ad9902aecba32e22fa4f6bd&amp;source=2&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15299999999&amp;password=670b14728ad9902aecba32e22fa4f6bd&amp;source=3&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=152&amp;password=670b14728ad9902aecba32e22fa4f6bd&amp;source=2&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册设备不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15299999999&amp;password=670b14728ad9902aecba32e22fa4f6bd&amp;source=4&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误或已过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=152000000&amp;password=670b14728ad9902aecba32e22fa4f6bd&amp;source=2&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码未加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=152000000&amp;password=000000&amp;source=2&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没传手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=000000&amp;source=2&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没传密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=152000000&amp;source=2&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没传设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没传验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15299999999&amp;password=670b14728ad9902aecba32e22fa4f6bd&amp;code=1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=15299999999&amp;password=670b14728ad9902aecba32e22fa4f6bd&amp;source=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/emailFindPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email=842007226@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置连接已发送到邮箱,请在24小时内修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email=test@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/telFindPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=14726968415&amp;password=670b14728ad9902aecba32e22fa4f6bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=14711111111&amp;password=670b14728ad9902aecba32e22fa4f6bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码未加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码未传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=670b14728ad9902aecba32e22fa4f6bd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=14726968415&amp;password=000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=14726968415</t>
+  </si>
+  <si>
+    <t>密码未传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有传uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +832,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +842,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +917,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,11 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L24"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -765,15 +1228,19 @@
     <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
     <col min="9" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="48.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="27" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -793,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
@@ -807,10 +1274,16 @@
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="M1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -825,7 +1298,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>66</v>
@@ -833,17 +1306,23 @@
       <c r="I2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K2" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="33" x14ac:dyDescent="0.15">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -866,17 +1345,23 @@
       <c r="I3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -891,7 +1376,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>66</v>
@@ -899,17 +1384,23 @@
       <c r="I4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -924,7 +1415,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>66</v>
@@ -932,17 +1423,23 @@
       <c r="I5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -957,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>66</v>
@@ -965,15 +1462,21 @@
       <c r="I6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
       </c>
@@ -981,555 +1484,1965 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
+      <c r="D8" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="L8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
+      <c r="D9" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="33" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
+      <c r="D10" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="J10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="4"/>
       <c r="L10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
+      <c r="D11" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="L11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
+      <c r="D12" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="L12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
+      <c r="D13" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K13" s="4" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
+      <c r="D14" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="J14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
+      <c r="D15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="H15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="H16" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>32</v>
+      <c r="D17" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
+      <c r="D18" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K18" s="4" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>84</v>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="L19" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>37</v>
+      <c r="D20" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>39</v>
+      <c r="D21" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
+      <c r="J21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="L21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="66" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
+      <c r="D22" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K22" s="4" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="33" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
+      <c r="D23" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="H23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
+      <c r="D24" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="H24" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="L24" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M41" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41">
       <formula1>"GET,POST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J24 B2:B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J41 B2:B41">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:L27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B27 H10:J27">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F27">
+      <formula1>"GET,POST"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>